--- a/ConceptMap-R5-ClinicalUseDefinition-elements-for-R4.xlsx
+++ b/ConceptMap-R5-ClinicalUseDefinition-elements-for-R4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="155">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.6376232-06:00</t>
+    <t>2026-02-17T14:42:27.0710387-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -246,7 +246,7 @@
     <t>indication</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalUseDefinition:contraindication:indication</t>
+    <t>http://hl7.org/fhir/StructureDefinition/alternate-reference</t>
   </si>
   <si>
     <t>ClinicalUseDefinition.contraindication.applicability</t>
@@ -333,9 +333,6 @@
     <t>undesirableEffect</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalUseDefinition:indication:undesirableEffect</t>
-  </si>
-  <si>
     <t>ClinicalUseDefinition.indication.applicability</t>
   </si>
   <si>
@@ -345,19 +342,7 @@
     <t>ClinicalUseDefinition.indication.otherTherapy</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalUseDefinition:indication:otherTherapy</t>
-  </si>
-  <si>
-    <t>ClinicalUseDefinition.indication.otherTherapy.relationshipType</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalUseDefinition:indication:otherTherapy:relationshipType</t>
-  </si>
-  <si>
-    <t>ClinicalUseDefinition.indication.otherTherapy.treatment</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalUseDefinition:indication:otherTherapy:treatment</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalUseDefinition.contraindication.otherTherapy</t>
   </si>
   <si>
     <t>ClinicalUseDefinition.interaction</t>
@@ -387,6 +372,9 @@
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalUseDefinition:interaction:interactant:item</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/StructureDefinition/alternate-canonical</t>
+  </si>
+  <si>
     <t>ClinicalUseDefinition.interaction.type</t>
   </si>
   <si>
@@ -426,16 +414,10 @@
     <t>population</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalUseDefinition:population</t>
-  </si>
-  <si>
     <t>ClinicalUseDefinition.library</t>
   </si>
   <si>
     <t>library</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ClinicalUseDefinition:library</t>
   </si>
   <si>
     <t>ClinicalUseDefinition.undesirableEffect</t>
@@ -1137,42 +1119,42 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -1185,219 +1167,219 @@
         <v>113</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>52</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>105</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E49" s="2"/>
     </row>
